--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Crtam-Cadm1.xlsx
@@ -546,10 +546,10 @@
         <v>0.14613</v>
       </c>
       <c r="I2">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="J2">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N2">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O2">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P2">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q2">
-        <v>0.06063662726333333</v>
+        <v>0.02628456546666667</v>
       </c>
       <c r="R2">
-        <v>0.5457296453699999</v>
+        <v>0.2365610892</v>
       </c>
       <c r="S2">
-        <v>0.00540744478717255</v>
+        <v>0.001681650127727395</v>
       </c>
       <c r="T2">
-        <v>0.005407444787172551</v>
+        <v>0.001681650127727395</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.14613</v>
       </c>
       <c r="I3">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="J3">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N3">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O3">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P3">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q3">
-        <v>0.1997418659033333</v>
+        <v>0.30494574014</v>
       </c>
       <c r="R3">
-        <v>1.79767679313</v>
+        <v>2.74451166126</v>
       </c>
       <c r="S3">
-        <v>0.01781255258259104</v>
+        <v>0.01951000649056533</v>
       </c>
       <c r="T3">
-        <v>0.01781255258259104</v>
+        <v>0.01951000649056533</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.14613</v>
       </c>
       <c r="I4">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="J4">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N4">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O4">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P4">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q4">
-        <v>0.09224314990999999</v>
+        <v>0.05758116262</v>
       </c>
       <c r="R4">
-        <v>0.8301883491899998</v>
+        <v>0.51823046358</v>
       </c>
       <c r="S4">
-        <v>0.008226046906715528</v>
+        <v>0.003683963107452305</v>
       </c>
       <c r="T4">
-        <v>0.008226046906715528</v>
+        <v>0.003683963107452305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>0.14613</v>
       </c>
       <c r="I5">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="J5">
-        <v>0.05815566200866863</v>
+        <v>0.06500340741874241</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N5">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O5">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P5">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q5">
-        <v>0.2995095093</v>
+        <v>0.6272062453766667</v>
       </c>
       <c r="R5">
-        <v>2.6955855837</v>
+        <v>5.64485620839</v>
       </c>
       <c r="S5">
-        <v>0.0267096177321895</v>
+        <v>0.0401277876929974</v>
       </c>
       <c r="T5">
-        <v>0.02670961773218951</v>
+        <v>0.0401277876929974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.177426</v>
       </c>
       <c r="I6">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="J6">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N6">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O6">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P6">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q6">
-        <v>0.073622898986</v>
+        <v>0.03191381176</v>
       </c>
       <c r="R6">
-        <v>0.662606090874</v>
+        <v>0.28722430584</v>
       </c>
       <c r="S6">
-        <v>0.006565532736665141</v>
+        <v>0.002041801516199006</v>
       </c>
       <c r="T6">
-        <v>0.006565532736665142</v>
+        <v>0.002041801516199006</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.177426</v>
       </c>
       <c r="I7">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="J7">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N7">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P7">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q7">
-        <v>0.242519676314</v>
+        <v>0.370254587628</v>
       </c>
       <c r="R7">
-        <v>2.182677086826</v>
+        <v>3.332291288652</v>
       </c>
       <c r="S7">
-        <v>0.0216273862623609</v>
+        <v>0.02368837618281696</v>
       </c>
       <c r="T7">
-        <v>0.0216273862623609</v>
+        <v>0.02368837618281696</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.177426</v>
       </c>
       <c r="I8">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="J8">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N8">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O8">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P8">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q8">
-        <v>0.111998447382</v>
+        <v>0.06991305932399999</v>
       </c>
       <c r="R8">
-        <v>1.007986026438</v>
+        <v>0.629217533916</v>
       </c>
       <c r="S8">
-        <v>0.009987782101354339</v>
+        <v>0.004472940794517434</v>
       </c>
       <c r="T8">
-        <v>0.009987782101354339</v>
+        <v>0.004472940794517434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>0.177426</v>
       </c>
       <c r="I9">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="J9">
-        <v>0.07061059664374215</v>
+        <v>0.07892489266186128</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N9">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O9">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P9">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q9">
-        <v>0.36365410386</v>
+        <v>0.761532165142</v>
       </c>
       <c r="R9">
-        <v>3.27288693474</v>
+        <v>6.853789486277999</v>
       </c>
       <c r="S9">
-        <v>0.03242989554336177</v>
+        <v>0.0487217741683279</v>
       </c>
       <c r="T9">
-        <v>0.03242989554336178</v>
+        <v>0.0487217741683279</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3153839999999999</v>
+        <v>0.3835156666666666</v>
       </c>
       <c r="H10">
-        <v>0.9461519999999999</v>
+        <v>1.150547</v>
       </c>
       <c r="I10">
-        <v>0.3765420921154166</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="J10">
-        <v>0.3765420921154167</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N10">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O10">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P10">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q10">
-        <v>0.3926056672719999</v>
+        <v>0.2069501672755556</v>
       </c>
       <c r="R10">
-        <v>3.533451005447999</v>
+        <v>1.86255150548</v>
       </c>
       <c r="S10">
-        <v>0.03501173407426868</v>
+        <v>0.01324038533844091</v>
       </c>
       <c r="T10">
-        <v>0.03501173407426869</v>
+        <v>0.01324038533844091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3153839999999999</v>
+        <v>0.3835156666666666</v>
       </c>
       <c r="H11">
-        <v>0.9461519999999999</v>
+        <v>1.150547</v>
       </c>
       <c r="I11">
-        <v>0.3765420921154166</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="J11">
-        <v>0.3765420921154167</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N11">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O11">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P11">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q11">
-        <v>1.293274248328</v>
+        <v>2.400974519132666</v>
       </c>
       <c r="R11">
-        <v>11.639468234952</v>
+        <v>21.608770672194</v>
       </c>
       <c r="S11">
-        <v>0.1153314326361711</v>
+        <v>0.1536110274255831</v>
       </c>
       <c r="T11">
-        <v>0.1153314326361711</v>
+        <v>0.1536110274255831</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3153839999999999</v>
+        <v>0.3835156666666666</v>
       </c>
       <c r="H12">
-        <v>0.9461519999999999</v>
+        <v>1.150547</v>
       </c>
       <c r="I12">
-        <v>0.3765420921154166</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="J12">
-        <v>0.3765420921154167</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N12">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P12">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q12">
-        <v>0.5972493038639999</v>
+        <v>0.4533623069113333</v>
       </c>
       <c r="R12">
-        <v>5.375243734775999</v>
+        <v>4.080260762202</v>
       </c>
       <c r="S12">
-        <v>0.05326141608761178</v>
+        <v>0.02900549306364146</v>
       </c>
       <c r="T12">
-        <v>0.05326141608761179</v>
+        <v>0.02900549306364146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3153839999999999</v>
+        <v>0.3835156666666666</v>
       </c>
       <c r="H13">
-        <v>0.9461519999999999</v>
+        <v>1.150547</v>
       </c>
       <c r="I13">
-        <v>0.3765420921154166</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="J13">
-        <v>0.3765420921154167</v>
+        <v>0.511800967600163</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N13">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O13">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P13">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q13">
-        <v>1.93924260072</v>
+        <v>4.938275946071221</v>
       </c>
       <c r="R13">
-        <v>17.45318340648</v>
+        <v>44.44448351464099</v>
       </c>
       <c r="S13">
-        <v>0.1729375093173651</v>
+        <v>0.3159440617724976</v>
       </c>
       <c r="T13">
-        <v>0.1729375093173652</v>
+        <v>0.3159440617724976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1606383333333333</v>
+        <v>0.1956336666666667</v>
       </c>
       <c r="H14">
-        <v>0.481915</v>
+        <v>0.586901</v>
       </c>
       <c r="I14">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="J14">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N14">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O14">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P14">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q14">
-        <v>0.1999705757038889</v>
+        <v>0.1055665349822222</v>
       </c>
       <c r="R14">
-        <v>1.799735181335</v>
+        <v>0.95009881484</v>
       </c>
       <c r="S14">
-        <v>0.01783294843365674</v>
+        <v>0.006754000832227029</v>
       </c>
       <c r="T14">
-        <v>0.01783294843365675</v>
+        <v>0.006754000832227027</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1606383333333333</v>
+        <v>0.1956336666666667</v>
       </c>
       <c r="H15">
-        <v>0.481915</v>
+        <v>0.586901</v>
       </c>
       <c r="I15">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="J15">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N15">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O15">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P15">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q15">
-        <v>0.6587189578238889</v>
+        <v>1.224751658344667</v>
       </c>
       <c r="R15">
-        <v>5.928470620415</v>
+        <v>11.022764925102</v>
       </c>
       <c r="S15">
-        <v>0.05874314841469488</v>
+        <v>0.07835791637117143</v>
       </c>
       <c r="T15">
-        <v>0.05874314841469488</v>
+        <v>0.07835791637117141</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1606383333333333</v>
+        <v>0.1956336666666667</v>
       </c>
       <c r="H16">
-        <v>0.481915</v>
+        <v>0.586901</v>
       </c>
       <c r="I16">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="J16">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N16">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O16">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P16">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q16">
-        <v>0.3042041852383333</v>
+        <v>0.2312628613073333</v>
       </c>
       <c r="R16">
-        <v>2.737837667145</v>
+        <v>2.081365751766</v>
       </c>
       <c r="S16">
-        <v>0.0271282788958449</v>
+        <v>0.01479587786030839</v>
       </c>
       <c r="T16">
-        <v>0.0271282788958449</v>
+        <v>0.01479587786030839</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>24</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1606383333333333</v>
+        <v>0.1956336666666667</v>
       </c>
       <c r="H17">
-        <v>0.481915</v>
+        <v>0.586901</v>
       </c>
       <c r="I17">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="J17">
-        <v>0.1917887213912786</v>
+        <v>0.2610727764146126</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N17">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O17">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P17">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q17">
-        <v>0.98773780315</v>
+        <v>2.519044498855889</v>
       </c>
       <c r="R17">
-        <v>8.88964022835</v>
+        <v>22.671400489703</v>
       </c>
       <c r="S17">
-        <v>0.0880843456470821</v>
+        <v>0.1611649813509058</v>
       </c>
       <c r="T17">
-        <v>0.08808434564708212</v>
+        <v>0.1611649813509058</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2537053333333333</v>
+        <v>0.06234399999999999</v>
       </c>
       <c r="H18">
-        <v>0.761116</v>
+        <v>0.187032</v>
       </c>
       <c r="I18">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462073</v>
       </c>
       <c r="J18">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462074</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.244849666666667</v>
+        <v>0.5396133333333334</v>
       </c>
       <c r="N18">
-        <v>3.734549</v>
+        <v>1.61884</v>
       </c>
       <c r="O18">
-        <v>0.09298225831160725</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="P18">
-        <v>0.09298225831160727</v>
+        <v>0.02587018426425635</v>
       </c>
       <c r="Q18">
-        <v>0.3158249996315555</v>
+        <v>0.03364165365333333</v>
       </c>
       <c r="R18">
-        <v>2.842424996684</v>
+        <v>0.30277488288</v>
       </c>
       <c r="S18">
-        <v>0.02816459827984413</v>
+        <v>0.002152346449662013</v>
       </c>
       <c r="T18">
-        <v>0.02816459827984414</v>
+        <v>0.002152346449662014</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2537053333333333</v>
+        <v>0.06234399999999999</v>
       </c>
       <c r="H19">
-        <v>0.761116</v>
+        <v>0.187032</v>
       </c>
       <c r="I19">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462073</v>
       </c>
       <c r="J19">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462074</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.100633666666667</v>
+        <v>6.260434</v>
       </c>
       <c r="N19">
-        <v>12.301901</v>
+        <v>18.781302</v>
       </c>
       <c r="O19">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="P19">
-        <v>0.3062909434327464</v>
+        <v>0.3001382122153186</v>
       </c>
       <c r="Q19">
-        <v>1.040352631279556</v>
+        <v>0.3903004972959999</v>
       </c>
       <c r="R19">
-        <v>9.363173681516001</v>
+        <v>3.512704475664</v>
       </c>
       <c r="S19">
-        <v>0.09277642353692853</v>
+        <v>0.02497088574518178</v>
       </c>
       <c r="T19">
-        <v>0.09277642353692853</v>
+        <v>0.02497088574518178</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.2537053333333333</v>
+        <v>0.06234399999999999</v>
       </c>
       <c r="H20">
-        <v>0.761116</v>
+        <v>0.187032</v>
       </c>
       <c r="I20">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462073</v>
       </c>
       <c r="J20">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462074</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.893721</v>
+        <v>1.182122</v>
       </c>
       <c r="N20">
-        <v>5.681163</v>
+        <v>3.546366</v>
       </c>
       <c r="O20">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="P20">
-        <v>0.1414487708090979</v>
+        <v>0.0566733845769154</v>
       </c>
       <c r="Q20">
-        <v>0.4804471175453333</v>
+        <v>0.07369821396799998</v>
       </c>
       <c r="R20">
-        <v>4.324024057908</v>
+        <v>0.6632839257119999</v>
       </c>
       <c r="S20">
-        <v>0.04284524681757132</v>
+        <v>0.004715109750995821</v>
       </c>
       <c r="T20">
-        <v>0.04284524681757132</v>
+        <v>0.004715109750995821</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.2537053333333333</v>
+        <v>0.06234399999999999</v>
       </c>
       <c r="H21">
-        <v>0.761116</v>
+        <v>0.187032</v>
       </c>
       <c r="I21">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462073</v>
       </c>
       <c r="J21">
-        <v>0.302902927840894</v>
+        <v>0.08319795590462074</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>6.14883</v>
+        <v>12.87633433333333</v>
       </c>
       <c r="N21">
-        <v>18.44649</v>
+        <v>38.629003</v>
       </c>
       <c r="O21">
-        <v>0.4592780274465485</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="P21">
-        <v>0.4592780274465486</v>
+        <v>0.6173182189435098</v>
       </c>
       <c r="Q21">
-        <v>1.55999096476</v>
+        <v>0.8027621876773331</v>
       </c>
       <c r="R21">
-        <v>14.03991868284</v>
+        <v>7.224859689095998</v>
       </c>
       <c r="S21">
-        <v>0.13911665920655</v>
+        <v>0.05135961395878114</v>
       </c>
       <c r="T21">
-        <v>0.13911665920655</v>
+        <v>0.05135961395878114</v>
       </c>
     </row>
   </sheetData>
